--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il4-Cd53.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il4-Cd53.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9334919999999999</v>
+        <v>0.9458723333333334</v>
       </c>
       <c r="H2">
-        <v>2.800476</v>
+        <v>2.837617</v>
       </c>
       <c r="I2">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="J2">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>174.540324</v>
+        <v>0.096592</v>
       </c>
       <c r="N2">
-        <v>523.6209719999999</v>
+        <v>0.289776</v>
       </c>
       <c r="O2">
-        <v>0.3820787105214641</v>
+        <v>0.0005851292956313063</v>
       </c>
       <c r="P2">
-        <v>0.3820787105214641</v>
+        <v>0.0005851292956313063</v>
       </c>
       <c r="Q2">
-        <v>162.9319961314079</v>
+        <v>0.09136370042133334</v>
       </c>
       <c r="R2">
-        <v>1466.387965182672</v>
+        <v>0.822273303792</v>
       </c>
       <c r="S2">
-        <v>0.07989100343532889</v>
+        <v>0.0001096348761140906</v>
       </c>
       <c r="T2">
-        <v>0.07989100343532889</v>
+        <v>0.0001096348761140906</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9334919999999999</v>
+        <v>0.9458723333333334</v>
       </c>
       <c r="H3">
-        <v>2.800476</v>
+        <v>2.837617</v>
       </c>
       <c r="I3">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="J3">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.027911</v>
+        <v>164.9814526666667</v>
       </c>
       <c r="N3">
-        <v>0.083733</v>
+        <v>494.944358</v>
       </c>
       <c r="O3">
-        <v>6.109876872558451E-05</v>
+        <v>0.9994148707043687</v>
       </c>
       <c r="P3">
-        <v>6.109876872558451E-05</v>
+        <v>0.9994148707043686</v>
       </c>
       <c r="Q3">
-        <v>0.026054695212</v>
+        <v>156.0513915905429</v>
       </c>
       <c r="R3">
-        <v>0.234492256908</v>
+        <v>1404.462524314886</v>
       </c>
       <c r="S3">
-        <v>1.277548789747557E-05</v>
+        <v>0.187258997890433</v>
       </c>
       <c r="T3">
-        <v>1.277548789747557E-05</v>
+        <v>0.187258997890433</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9334919999999999</v>
+        <v>1.964334</v>
       </c>
       <c r="H4">
-        <v>2.800476</v>
+        <v>5.893002</v>
       </c>
       <c r="I4">
-        <v>0.209095668602663</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="J4">
-        <v>0.209095668602663</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>282.2494813333333</v>
+        <v>0.096592</v>
       </c>
       <c r="N4">
-        <v>846.7484440000001</v>
+        <v>0.289776</v>
       </c>
       <c r="O4">
-        <v>0.6178601907098104</v>
+        <v>0.0005851292956313063</v>
       </c>
       <c r="P4">
-        <v>0.6178601907098104</v>
+        <v>0.0005851292956313063</v>
       </c>
       <c r="Q4">
-        <v>263.477632828816</v>
+        <v>0.189738949728</v>
       </c>
       <c r="R4">
-        <v>2371.298695459344</v>
+        <v>1.707650547552</v>
       </c>
       <c r="S4">
-        <v>0.1291918896794367</v>
+        <v>0.0002276834908340653</v>
       </c>
       <c r="T4">
-        <v>0.1291918896794367</v>
+        <v>0.0002276834908340653</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>5.893002</v>
       </c>
       <c r="I5">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="J5">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>174.540324</v>
+        <v>164.9814526666667</v>
       </c>
       <c r="N5">
-        <v>523.6209719999999</v>
+        <v>494.944358</v>
       </c>
       <c r="O5">
-        <v>0.3820787105214641</v>
+        <v>0.9994148707043687</v>
       </c>
       <c r="P5">
-        <v>0.3820787105214641</v>
+        <v>0.9994148707043686</v>
       </c>
       <c r="Q5">
-        <v>342.8554928042159</v>
+        <v>324.078676842524</v>
       </c>
       <c r="R5">
-        <v>3085.699435237944</v>
+        <v>2916.708091582716</v>
       </c>
       <c r="S5">
-        <v>0.1681135074988681</v>
+        <v>0.3888888631151833</v>
       </c>
       <c r="T5">
-        <v>0.1681135074988681</v>
+        <v>0.3888888631151833</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.964334</v>
+        <v>1.499502333333333</v>
       </c>
       <c r="H6">
-        <v>5.893002</v>
+        <v>4.498507</v>
       </c>
       <c r="I6">
-        <v>0.4399970552387631</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="J6">
-        <v>0.4399970552387631</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,33 +803,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.027911</v>
+        <v>0.096592</v>
       </c>
       <c r="N6">
-        <v>0.083733</v>
+        <v>0.289776</v>
       </c>
       <c r="O6">
-        <v>6.109876872558451E-05</v>
+        <v>0.0005851292956313063</v>
       </c>
       <c r="P6">
-        <v>6.109876872558451E-05</v>
+        <v>0.0005851292956313063</v>
       </c>
       <c r="Q6">
-        <v>0.054826526274</v>
+        <v>0.1448399293813333</v>
       </c>
       <c r="R6">
-        <v>0.493438736466</v>
+        <v>1.303559364432</v>
       </c>
       <c r="S6">
-        <v>2.688327831797142E-05</v>
+        <v>0.0001738054352096739</v>
       </c>
       <c r="T6">
-        <v>2.688327831797142E-05</v>
+        <v>0.0001738054352096739</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.964334</v>
+        <v>1.499502333333333</v>
       </c>
       <c r="H7">
-        <v>5.893002</v>
+        <v>4.498507</v>
       </c>
       <c r="I7">
-        <v>0.4399970552387631</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="J7">
-        <v>0.4399970552387631</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>282.2494813333333</v>
+        <v>164.9814526666667</v>
       </c>
       <c r="N7">
-        <v>846.7484440000001</v>
+        <v>494.944358</v>
       </c>
       <c r="O7">
-        <v>0.6178601907098104</v>
+        <v>0.9994148707043687</v>
       </c>
       <c r="P7">
-        <v>0.6178601907098104</v>
+        <v>0.9994148707043686</v>
       </c>
       <c r="Q7">
-        <v>554.432252665432</v>
+        <v>247.3900732303896</v>
       </c>
       <c r="R7">
-        <v>4989.890273988888</v>
+        <v>2226.510659073506</v>
       </c>
       <c r="S7">
-        <v>0.2718566644615771</v>
+        <v>0.2968638518951282</v>
       </c>
       <c r="T7">
-        <v>0.2718566644615771</v>
+        <v>0.2968638518951282</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.413418666666667</v>
+        <v>0.6384806666666667</v>
       </c>
       <c r="H8">
-        <v>4.240256</v>
+        <v>1.915442</v>
       </c>
       <c r="I8">
-        <v>0.3165958799027214</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="J8">
-        <v>0.3165958799027214</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,33 +927,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>174.540324</v>
+        <v>0.096592</v>
       </c>
       <c r="N8">
-        <v>523.6209719999999</v>
+        <v>0.289776</v>
       </c>
       <c r="O8">
-        <v>0.3820787105214641</v>
+        <v>0.0005851292956313063</v>
       </c>
       <c r="P8">
-        <v>0.3820787105214641</v>
+        <v>0.0005851292956313063</v>
       </c>
       <c r="Q8">
-        <v>246.6985520276479</v>
+        <v>0.06167212455466667</v>
       </c>
       <c r="R8">
-        <v>2220.286968248832</v>
+        <v>0.555049120992</v>
       </c>
       <c r="S8">
-        <v>0.1209645455496401</v>
+        <v>7.400549347347647E-05</v>
       </c>
       <c r="T8">
-        <v>0.1209645455496401</v>
+        <v>7.400549347347647E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,294 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.413418666666667</v>
+        <v>0.6384806666666667</v>
       </c>
       <c r="H9">
-        <v>4.240256</v>
+        <v>1.915442</v>
       </c>
       <c r="I9">
-        <v>0.3165958799027214</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="J9">
-        <v>0.3165958799027214</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.027911</v>
+        <v>164.9814526666667</v>
       </c>
       <c r="N9">
-        <v>0.083733</v>
+        <v>494.944358</v>
       </c>
       <c r="O9">
-        <v>6.109876872558451E-05</v>
+        <v>0.9994148707043687</v>
       </c>
       <c r="P9">
-        <v>6.109876872558451E-05</v>
+        <v>0.9994148707043686</v>
       </c>
       <c r="Q9">
-        <v>0.03944992840533333</v>
+        <v>105.3374678862485</v>
       </c>
       <c r="R9">
-        <v>0.355049355648</v>
+        <v>948.0372109762361</v>
       </c>
       <c r="S9">
-        <v>1.93436184456493E-05</v>
+        <v>0.1264031578036242</v>
       </c>
       <c r="T9">
-        <v>1.93436184456493E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.413418666666667</v>
-      </c>
-      <c r="H10">
-        <v>4.240256</v>
-      </c>
-      <c r="I10">
-        <v>0.3165958799027214</v>
-      </c>
-      <c r="J10">
-        <v>0.3165958799027214</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>282.2494813333333</v>
-      </c>
-      <c r="N10">
-        <v>846.7484440000001</v>
-      </c>
-      <c r="O10">
-        <v>0.6178601907098104</v>
-      </c>
-      <c r="P10">
-        <v>0.6178601907098104</v>
-      </c>
-      <c r="Q10">
-        <v>398.9366855735182</v>
-      </c>
-      <c r="R10">
-        <v>3590.430170161664</v>
-      </c>
-      <c r="S10">
-        <v>0.1956119907346356</v>
-      </c>
-      <c r="T10">
-        <v>0.1956119907346356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.1531806666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.459542</v>
-      </c>
-      <c r="I11">
-        <v>0.03431139625585257</v>
-      </c>
-      <c r="J11">
-        <v>0.03431139625585257</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>174.540324</v>
-      </c>
-      <c r="N11">
-        <v>523.6209719999999</v>
-      </c>
-      <c r="O11">
-        <v>0.3820787105214641</v>
-      </c>
-      <c r="P11">
-        <v>0.3820787105214641</v>
-      </c>
-      <c r="Q11">
-        <v>26.736203190536</v>
-      </c>
-      <c r="R11">
-        <v>240.625828714824</v>
-      </c>
-      <c r="S11">
-        <v>0.01310965403762714</v>
-      </c>
-      <c r="T11">
-        <v>0.01310965403762714</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.1531806666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.459542</v>
-      </c>
-      <c r="I12">
-        <v>0.03431139625585257</v>
-      </c>
-      <c r="J12">
-        <v>0.03431139625585257</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.027911</v>
-      </c>
-      <c r="N12">
-        <v>0.083733</v>
-      </c>
-      <c r="O12">
-        <v>6.109876872558451E-05</v>
-      </c>
-      <c r="P12">
-        <v>6.109876872558451E-05</v>
-      </c>
-      <c r="Q12">
-        <v>0.004275425587333333</v>
-      </c>
-      <c r="R12">
-        <v>0.038478830286</v>
-      </c>
-      <c r="S12">
-        <v>2.096384064488222E-06</v>
-      </c>
-      <c r="T12">
-        <v>2.096384064488222E-06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.1531806666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.459542</v>
-      </c>
-      <c r="I13">
-        <v>0.03431139625585257</v>
-      </c>
-      <c r="J13">
-        <v>0.03431139625585257</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>282.2494813333333</v>
-      </c>
-      <c r="N13">
-        <v>846.7484440000001</v>
-      </c>
-      <c r="O13">
-        <v>0.6178601907098104</v>
-      </c>
-      <c r="P13">
-        <v>0.6178601907098104</v>
-      </c>
-      <c r="Q13">
-        <v>43.23516371696089</v>
-      </c>
-      <c r="R13">
-        <v>389.1164734526481</v>
-      </c>
-      <c r="S13">
-        <v>0.02119964583416094</v>
-      </c>
-      <c r="T13">
-        <v>0.02119964583416094</v>
+        <v>0.1264031578036242</v>
       </c>
     </row>
   </sheetData>
